--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/WYOMING_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/WYOMING_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C25">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C27">
@@ -1041,7 +1041,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C73">
@@ -1433,7 +1433,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C79">
@@ -1446,7 +1446,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C80">
@@ -1472,7 +1472,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C82">
@@ -1485,7 +1485,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C83">
@@ -1524,7 +1524,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C86">
@@ -1646,7 +1646,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C95">
@@ -1672,7 +1672,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C97">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C100">
@@ -1755,7 +1755,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C103">
@@ -1768,7 +1768,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C104">
@@ -1916,7 +1916,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C115">
@@ -2025,7 +2025,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C123">
@@ -2038,7 +2038,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C124">
@@ -2090,7 +2090,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C128">
@@ -2142,7 +2142,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C132">
@@ -2155,7 +2155,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C133">
@@ -2168,7 +2168,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C134">
@@ -2207,7 +2207,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C137">
@@ -2220,7 +2220,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C138">
@@ -2246,7 +2246,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C140">
@@ -2311,7 +2311,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C145">
@@ -2646,7 +2646,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C170">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C172">
@@ -2703,7 +2703,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C174">
@@ -2729,7 +2729,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C176">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C181">
@@ -2817,7 +2817,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C182">
@@ -2830,7 +2830,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C183">
@@ -2965,7 +2965,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -3004,7 +3004,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C201">
@@ -3087,7 +3087,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C202">
@@ -3362,7 +3362,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C222">
@@ -3598,7 +3598,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C239">
@@ -3624,7 +3624,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C241">
@@ -3746,7 +3746,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C250">
@@ -3759,7 +3759,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C251">
@@ -3990,7 +3990,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C268">
@@ -4003,7 +4003,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C269">
@@ -4055,7 +4055,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C273">
@@ -4068,7 +4068,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C274">
@@ -4094,7 +4094,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C276">
@@ -4154,41 +4154,6 @@
       </c>
       <c r="D280">
         <v>1</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/WYOMING_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/WYOMING_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tepezalá</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>El Tule</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Manuel Benavides</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -969,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -982,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Chiconcuac</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Simón De Guerrero</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>León</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1753,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1766,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1779,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1792,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1805,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1818,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -1831,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1844,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1888,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1901,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -1914,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1927,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1958,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -1971,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1984,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1997,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -2010,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Chimaltitán</t>
@@ -2023,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -2036,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2049,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -2062,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2075,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -2088,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2101,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2114,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2127,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -2140,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -2153,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -2166,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2179,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -2192,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -2205,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2218,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2231,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2244,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2257,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -2270,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -2283,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -2296,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2353,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -2366,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -2379,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -2392,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -2405,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -2418,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -2431,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2444,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2457,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -2470,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -2483,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -2496,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -2509,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -2522,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2535,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -2548,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2561,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2574,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2587,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2600,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2631,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -2644,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -2657,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2688,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Huajicori</t>
@@ -2701,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -2714,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -2727,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -2740,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2753,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2784,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2815,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -2828,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2841,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -2854,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Santiago Amoltepec</t>
@@ -2867,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -2880,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Santo Domingo Tepuxtepec</t>
@@ -2893,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2924,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2937,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -2950,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -2963,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -2976,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2989,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -3002,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -3015,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3028,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3041,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -3054,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3085,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -3098,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -3111,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3142,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -3155,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3168,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3181,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -3194,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3225,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -3238,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -3251,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -3264,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3295,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Bacerac</t>
@@ -3308,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3321,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -3334,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -3347,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3360,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -3373,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -3386,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -3399,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -3412,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3443,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -3456,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -3469,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3500,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3531,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -3544,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -3557,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3570,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Cuaxomulco</t>
@@ -3583,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -3596,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -3609,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -3622,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -3635,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -3648,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3661,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -3674,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -3687,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -3700,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -3713,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3744,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -3757,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -3770,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -3783,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3796,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -3809,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -3822,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -3835,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -3848,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3879,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3910,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Calera</t>
@@ -3923,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -3936,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -3949,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -3962,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -3975,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -3988,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Moyahua De Estrada</t>
@@ -4001,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -4014,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -4027,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -4040,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -4053,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Teúl De González Ortega</t>
@@ -4066,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -4079,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -4092,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4105,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4118,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -4131,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Total</t>
